--- a/Second semester/neural network/HW1/lbl7.xlsx
+++ b/Second semester/neural network/HW1/lbl7.xlsx
@@ -714,7 +714,7 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:1">
@@ -1254,7 +1254,7 @@
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:1">
@@ -1414,7 +1414,7 @@
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:1">
@@ -1679,7 +1679,7 @@
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:1">
@@ -1729,7 +1729,7 @@
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:1">
@@ -1834,7 +1834,7 @@
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:1">
@@ -2059,7 +2059,7 @@
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:1">
@@ -2179,7 +2179,7 @@
     </row>
     <row r="362" spans="1:1">
       <c r="A362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:1">
@@ -2284,7 +2284,7 @@
     </row>
     <row r="383" spans="1:1">
       <c r="A383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:1">
@@ -2404,7 +2404,7 @@
     </row>
     <row r="407" spans="1:1">
       <c r="A407">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:1">
@@ -2434,7 +2434,7 @@
     </row>
     <row r="413" spans="1:1">
       <c r="A413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:1">
@@ -2464,7 +2464,7 @@
     </row>
     <row r="419" spans="1:1">
       <c r="A419">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:1">
@@ -2909,7 +2909,7 @@
     </row>
     <row r="508" spans="1:1">
       <c r="A508">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:1">
@@ -3774,7 +3774,7 @@
     </row>
     <row r="681" spans="1:1">
       <c r="A681">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:1">
@@ -4114,7 +4114,7 @@
     </row>
     <row r="749" spans="1:1">
       <c r="A749">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:1">
@@ -4389,7 +4389,7 @@
     </row>
     <row r="804" spans="1:1">
       <c r="A804">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="1:1">
@@ -4574,7 +4574,7 @@
     </row>
     <row r="841" spans="1:1">
       <c r="A841">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:1">
@@ -6634,82 +6634,82 @@
     </row>
     <row r="1253" spans="1:1">
       <c r="A1253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1254" spans="1:1">
       <c r="A1254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1255" spans="1:1">
       <c r="A1255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1256" spans="1:1">
       <c r="A1256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1257" spans="1:1">
       <c r="A1257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1258" spans="1:1">
       <c r="A1258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1259" spans="1:1">
       <c r="A1259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1260" spans="1:1">
       <c r="A1260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1261" spans="1:1">
       <c r="A1261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1262" spans="1:1">
       <c r="A1262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1263" spans="1:1">
       <c r="A1263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1264" spans="1:1">
       <c r="A1264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1265" spans="1:1">
       <c r="A1265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1266" spans="1:1">
       <c r="A1266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1267" spans="1:1">
       <c r="A1267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1268" spans="1:1">
       <c r="A1268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1269" spans="1:1">
@@ -6764,7 +6764,7 @@
     </row>
     <row r="1279" spans="1:1">
       <c r="A1279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1280" spans="1:1">
@@ -6829,12 +6829,12 @@
     </row>
     <row r="1292" spans="1:1">
       <c r="A1292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1293" spans="1:1">
       <c r="A1293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1294" spans="1:1">
@@ -6884,12 +6884,12 @@
     </row>
     <row r="1303" spans="1:1">
       <c r="A1303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1304" spans="1:1">
       <c r="A1304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1305" spans="1:1">
@@ -6914,7 +6914,7 @@
     </row>
     <row r="1309" spans="1:1">
       <c r="A1309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1310" spans="1:1">
@@ -6924,7 +6924,7 @@
     </row>
     <row r="1311" spans="1:1">
       <c r="A1311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1312" spans="1:1">
@@ -6949,7 +6949,7 @@
     </row>
     <row r="1316" spans="1:1">
       <c r="A1316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1317" spans="1:1">
@@ -6959,7 +6959,7 @@
     </row>
     <row r="1318" spans="1:1">
       <c r="A1318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1319" spans="1:1">
@@ -6969,7 +6969,7 @@
     </row>
     <row r="1320" spans="1:1">
       <c r="A1320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1321" spans="1:1">
@@ -6989,7 +6989,7 @@
     </row>
     <row r="1324" spans="1:1">
       <c r="A1324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1325" spans="1:1">
@@ -7024,7 +7024,7 @@
     </row>
     <row r="1331" spans="1:1">
       <c r="A1331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1332" spans="1:1">
@@ -7034,12 +7034,12 @@
     </row>
     <row r="1333" spans="1:1">
       <c r="A1333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1334" spans="1:1">
       <c r="A1334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1335" spans="1:1">
@@ -7114,7 +7114,7 @@
     </row>
     <row r="1349" spans="1:1">
       <c r="A1349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1350" spans="1:1">
@@ -7164,12 +7164,12 @@
     </row>
     <row r="1359" spans="1:1">
       <c r="A1359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1360" spans="1:1">
       <c r="A1360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1361" spans="1:1">
@@ -7179,7 +7179,7 @@
     </row>
     <row r="1362" spans="1:1">
       <c r="A1362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1363" spans="1:1">
@@ -7189,7 +7189,7 @@
     </row>
     <row r="1364" spans="1:1">
       <c r="A1364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1365" spans="1:1">
@@ -7199,7 +7199,7 @@
     </row>
     <row r="1366" spans="1:1">
       <c r="A1366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1367" spans="1:1">
@@ -7234,7 +7234,7 @@
     </row>
     <row r="1373" spans="1:1">
       <c r="A1373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1374" spans="1:1">
@@ -7244,7 +7244,7 @@
     </row>
     <row r="1375" spans="1:1">
       <c r="A1375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1376" spans="1:1">
@@ -7279,12 +7279,12 @@
     </row>
     <row r="1382" spans="1:1">
       <c r="A1382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1383" spans="1:1">
       <c r="A1383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1384" spans="1:1">
@@ -7344,7 +7344,7 @@
     </row>
     <row r="1395" spans="1:1">
       <c r="A1395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1396" spans="1:1">
@@ -7359,7 +7359,7 @@
     </row>
     <row r="1398" spans="1:1">
       <c r="A1398">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1399" spans="1:1">
@@ -7369,7 +7369,7 @@
     </row>
     <row r="1400" spans="1:1">
       <c r="A1400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1401" spans="1:1">
@@ -7404,7 +7404,7 @@
     </row>
     <row r="1407" spans="1:1">
       <c r="A1407">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1408" spans="1:1">
@@ -7444,12 +7444,12 @@
     </row>
     <row r="1415" spans="1:1">
       <c r="A1415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1416" spans="1:1">
       <c r="A1416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1417" spans="1:1">
@@ -7484,7 +7484,7 @@
     </row>
     <row r="1423" spans="1:1">
       <c r="A1423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1424" spans="1:1">
@@ -7524,7 +7524,7 @@
     </row>
     <row r="1431" spans="1:1">
       <c r="A1431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1432" spans="1:1">
@@ -7554,7 +7554,7 @@
     </row>
     <row r="1437" spans="1:1">
       <c r="A1437">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1438" spans="1:1">
@@ -7564,7 +7564,7 @@
     </row>
     <row r="1439" spans="1:1">
       <c r="A1439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1440" spans="1:1">
@@ -7574,7 +7574,7 @@
     </row>
     <row r="1441" spans="1:1">
       <c r="A1441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1442" spans="1:1">
@@ -7584,37 +7584,37 @@
     </row>
     <row r="1443" spans="1:1">
       <c r="A1443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1444" spans="1:1">
       <c r="A1444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1445" spans="1:1">
       <c r="A1445">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1446" spans="1:1">
       <c r="A1446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1447" spans="1:1">
       <c r="A1447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1448" spans="1:1">
       <c r="A1448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1449" spans="1:1">
       <c r="A1449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1450" spans="1:1">
@@ -8369,7 +8369,7 @@
     </row>
     <row r="1600" spans="1:1">
       <c r="A1600">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1601" spans="1:1">
@@ -8524,7 +8524,7 @@
     </row>
     <row r="1631" spans="1:1">
       <c r="A1631">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1632" spans="1:1">
@@ -8539,7 +8539,7 @@
     </row>
     <row r="1634" spans="1:1">
       <c r="A1634">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1635" spans="1:1">
@@ -8604,7 +8604,7 @@
     </row>
     <row r="1647" spans="1:1">
       <c r="A1647">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1648" spans="1:1">
@@ -8639,7 +8639,7 @@
     </row>
     <row r="1654" spans="1:1">
       <c r="A1654">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1655" spans="1:1">
@@ -8664,7 +8664,7 @@
     </row>
     <row r="1659" spans="1:1">
       <c r="A1659">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1660" spans="1:1">
@@ -8684,7 +8684,7 @@
     </row>
     <row r="1663" spans="1:1">
       <c r="A1663">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1664" spans="1:1">
@@ -8744,7 +8744,7 @@
     </row>
     <row r="1675" spans="1:1">
       <c r="A1675">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1676" spans="1:1">
@@ -8954,7 +8954,7 @@
     </row>
     <row r="1717" spans="1:1">
       <c r="A1717">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1718" spans="1:1">
@@ -8994,7 +8994,7 @@
     </row>
     <row r="1725" spans="1:1">
       <c r="A1725">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1726" spans="1:1">
@@ -9134,7 +9134,7 @@
     </row>
     <row r="1753" spans="1:1">
       <c r="A1753">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1754" spans="1:1">
@@ -9169,12 +9169,12 @@
     </row>
     <row r="1760" spans="1:1">
       <c r="A1760">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1761" spans="1:1">
       <c r="A1761">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1762" spans="1:1">
@@ -9259,12 +9259,12 @@
     </row>
     <row r="1778" spans="1:1">
       <c r="A1778">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1779" spans="1:1">
       <c r="A1779">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1780" spans="1:1">
